--- a/biology/Médecine/Léon_Jullemier/Léon_Jullemier.xlsx
+++ b/biology/Médecine/Léon_Jullemier/Léon_Jullemier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Jullemier</t>
+          <t>Léon_Jullemier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Léon Jullemier (Brest, 11 avril 1874 - Paris 6e, 7 septembre 1960[1]) est un médecin et officier français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Léon Jullemier (Brest, 11 avril 1874 - Paris 6e, 7 septembre 1960) est un médecin et officier français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Jullemier</t>
+          <t>Léon_Jullemier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Docteur en médecine[2] depuis 1902, il est pendant la Première Guerre mondiale médecin aide-major dans la colonne du Sud Cameroun lors de la conquête franco-britannique de cette colonie allemande en 1915-1916[3].
-Il travaille ensuite comme hygiéniste et épidémiologiste, notamment sur l'étude de la trypanosomiase. En 1917-1918, faisant partie des équipes d'Eugène Jamot, il visite les rives du Nyong et de la Sanaga, et cartographie les zones de contamination dans la région du Sud-Cameroun comprise entre ces deux fleuves[4]. 
-Après la guerre, il est médecin-navigant et exerce à bord du paquebot L’Atlantique, ravagé par le feu le 4 janvier 1933 ; son nom est indiqué parmi les rescapés[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Docteur en médecine depuis 1902, il est pendant la Première Guerre mondiale médecin aide-major dans la colonne du Sud Cameroun lors de la conquête franco-britannique de cette colonie allemande en 1915-1916.
+Il travaille ensuite comme hygiéniste et épidémiologiste, notamment sur l'étude de la trypanosomiase. En 1917-1918, faisant partie des équipes d'Eugène Jamot, il visite les rives du Nyong et de la Sanaga, et cartographie les zones de contamination dans la région du Sud-Cameroun comprise entre ces deux fleuves. 
+Après la guerre, il est médecin-navigant et exerce à bord du paquebot L’Atlantique, ravagé par le feu le 4 janvier 1933 ; son nom est indiqué parmi les rescapés.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Jullemier</t>
+          <t>Léon_Jullemier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>C'est en hommage à Léon Jullemier que fut nommé le mont Jullemier (îles Kerguelen) par Raymond Rallier du Baty[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C'est en hommage à Léon Jullemier que fut nommé le mont Jullemier (îles Kerguelen) par Raymond Rallier du Baty.</t>
         </is>
       </c>
     </row>
